--- a/backend/output/Seating_Sem6_Slot_morning.xlsx
+++ b/backend/output/Seating_Sem6_Slot_morning.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="gw12" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="NLHC1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:E77"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -439,12 +439,12 @@
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Subject_Code</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
           <t>Branch</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Sub_code</t>
         </is>
       </c>
     </row>
@@ -1370,6 +1370,981 @@
       <c r="E38" t="inlineStr">
         <is>
           <t>CSE</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>038</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Student_1</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>20220000</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>039</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Student_21</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>20220020</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>040</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Student_25</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>20220024</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>041</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Student_50</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>20220049</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>042</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Student_55</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>20220054</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>043</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Student_56</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>20220055</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>044</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Student_58</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>20220057</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>045</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Student_62</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>20220061</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>046</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Student_64</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>20220063</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>047</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Student_68</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>20220067</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>048</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Student_76</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>20220075</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>049</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Student_81</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>20220080</v>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>050</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Student_94</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>20220093</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>051</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Student_103</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>20220102</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>052</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Student_105</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>20220104</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>053</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>Student_120</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>20220119</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>054</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>Student_125</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>20220124</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>055</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>Student_127</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>20220126</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>056</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Student_156</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>20220155</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>057</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Student_166</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>20220165</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>058</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Student_172</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>20220171</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>059</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Student_188</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>20220187</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>060</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>Student_197</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>20220196</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>061</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Student_199</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>20220198</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>062</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Student_200</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>20220199</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>063</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Student_201</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>20220200</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>064</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>Student_207</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>20220206</v>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>065</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>Student_226</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>20220225</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>066</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Student_227</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>20220226</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>067</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>Student_230</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>20220229</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>068</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Student_238</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>20220237</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>069</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Student_239</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>20220238</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>070</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Student_246</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>20220245</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>071</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Student_261</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>20220260</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>072</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Student_269</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>20220268</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>073</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>Student_273</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>20220272</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>074</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Student_276</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>20220275</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>075</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Student_283</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>20220282</v>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>EE</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>076</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>Student_298</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>20220297</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>EEN1027</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>EE</t>
         </is>
       </c>
     </row>
